--- a/data_quarter/zb/工业/主要工业产品的销售与库存/数字激光音视盘机.xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/数字激光音视盘机.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,45 +454,67 @@
           <t>数字激光音视盘机销售量_累计值</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>数字激光音视盘机产销率</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>数字激光音视盘机销售量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96.2</v>
+        <v>97</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>133.3</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>5796.9</v>
+        <v>3668</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3668</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97</v>
+        <v>96.2</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>67.09999999999999</v>
+        <v>133.3</v>
       </c>
       <c r="E3" t="n">
-        <v>3668</v>
+        <v>5796.9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2128.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -505,11 +527,17 @@
       <c r="E4" t="n">
         <v>8278.299999999999</v>
       </c>
+      <c r="F4" t="n">
+        <v>1.700000000000003</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2481.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -522,45 +550,63 @@
       <c r="E5" t="n">
         <v>2023.4</v>
       </c>
+      <c r="F5" t="n">
+        <v>1.299999999999997</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2023.4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.5</v>
+        <v>96.7</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>-9.699999999999999</v>
+        <v>36.4</v>
       </c>
       <c r="E6" t="n">
-        <v>7238.9</v>
+        <v>4156</v>
+      </c>
+      <c r="F6" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2132.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96.7</v>
+        <v>100.5</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>36.4</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>4156</v>
+        <v>7238.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.799999999999997</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3082.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -573,11 +619,17 @@
       <c r="E8" t="n">
         <v>10406.3</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3167.4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -590,45 +642,63 @@
       <c r="E9" t="n">
         <v>2189</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2189</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>83.3</v>
+        <v>39.9</v>
       </c>
       <c r="E10" t="n">
-        <v>7588.8</v>
+        <v>5263.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3074.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>39.9</v>
+        <v>83.3</v>
       </c>
       <c r="E11" t="n">
-        <v>5263.7</v>
+        <v>7588.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2325.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -641,11 +711,17 @@
       <c r="E12" t="n">
         <v>10673.7</v>
       </c>
+      <c r="F12" t="n">
+        <v>2.200000000000003</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3084.900000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -658,45 +734,63 @@
       <c r="E13" t="n">
         <v>2026</v>
       </c>
+      <c r="F13" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2026</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>34.4</v>
       </c>
       <c r="E14" t="n">
-        <v>7560.9</v>
+        <v>4641.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2615.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98.59999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>34.4</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>4641.6</v>
+        <v>7560.9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2919.299999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -709,11 +803,17 @@
       <c r="E16" t="n">
         <v>10637.1</v>
       </c>
+      <c r="F16" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3076.200000000001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -728,49 +828,67 @@
       <c r="E17" t="n">
         <v>2368</v>
       </c>
+      <c r="F17" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2368</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D18" t="n">
-        <v>36.2</v>
+        <v>38.6</v>
       </c>
       <c r="E18" t="n">
-        <v>8115</v>
+        <v>5186.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.900000000000006</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2818.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D19" t="n">
-        <v>38.6</v>
+        <v>36.2</v>
       </c>
       <c r="E19" t="n">
-        <v>5186.3</v>
+        <v>8115</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2928.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -785,11 +903,17 @@
       <c r="E20" t="n">
         <v>10646</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2531</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -804,49 +928,67 @@
       <c r="E21" t="n">
         <v>1646.8</v>
       </c>
+      <c r="F21" t="n">
+        <v>4.299999999999997</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1646.8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101</v>
+        <v>100.5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="D22" t="n">
-        <v>-20.6</v>
+        <v>-6.4</v>
       </c>
       <c r="E22" t="n">
-        <v>7117.5</v>
+        <v>4072.2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2425.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.5</v>
+        <v>101</v>
       </c>
       <c r="C23" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="D23" t="n">
-        <v>-6.4</v>
+        <v>-20.6</v>
       </c>
       <c r="E23" t="n">
-        <v>4072.2</v>
+        <v>7117.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3045.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -861,11 +1003,17 @@
       <c r="E24" t="n">
         <v>9813.299999999999</v>
       </c>
+      <c r="F24" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2695.799999999999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -880,49 +1028,67 @@
       <c r="E25" t="n">
         <v>1472.7</v>
       </c>
+      <c r="F25" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1472.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>97.7</v>
+        <v>99.8</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1</v>
+        <v>-3.2</v>
       </c>
       <c r="D26" t="n">
-        <v>67</v>
+        <v>3.5</v>
       </c>
       <c r="E26" t="n">
-        <v>5708.1</v>
+        <v>3578</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8.700000000000003</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2105.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99.8</v>
+        <v>97.7</v>
       </c>
       <c r="C27" t="n">
-        <v>-3.2</v>
+        <v>-0.1</v>
       </c>
       <c r="D27" t="n">
-        <v>3.5</v>
+        <v>67</v>
       </c>
       <c r="E27" t="n">
-        <v>3578</v>
+        <v>5708.1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2130.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -937,11 +1103,17 @@
       <c r="E28" t="n">
         <v>8134.3</v>
       </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2426.2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -956,49 +1128,67 @@
       <c r="E29" t="n">
         <v>1556.5</v>
       </c>
+      <c r="F29" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1556.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.5</v>
+        <v>97.3</v>
       </c>
       <c r="C30" t="n">
-        <v>1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="D30" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E30" t="n">
-        <v>5714.7</v>
+        <v>3629.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.700000000000003</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2072.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.3</v>
+        <v>98.5</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D31" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>3629.2</v>
+        <v>5714.7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.200000000000003</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2085.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1013,11 +1203,17 @@
       <c r="E32" t="n">
         <v>7712.8</v>
       </c>
+      <c r="F32" t="n">
+        <v>1.299999999999997</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1998.1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1032,49 +1228,67 @@
       <c r="E33" t="n">
         <v>4425.4</v>
       </c>
+      <c r="F33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4425.4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D34" t="n">
-        <v>35.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>15559</v>
+        <v>9716.799999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5291.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>98.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>8.300000000000001</v>
+        <v>35.1</v>
       </c>
       <c r="E35" t="n">
-        <v>9716.799999999999</v>
+        <v>15559</v>
+      </c>
+      <c r="F35" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5842.200000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1089,11 +1303,17 @@
       <c r="E36" t="n">
         <v>20359.4</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.8999999999999915</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4800.400000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1108,49 +1328,67 @@
       <c r="E37" t="n">
         <v>4169.7</v>
       </c>
+      <c r="F37" t="n">
+        <v>3.900000000000006</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4169.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.59999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D38" t="n">
-        <v>12.4</v>
+        <v>-11</v>
       </c>
       <c r="E38" t="n">
-        <v>13482.1</v>
+        <v>8873.9</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4704.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>100.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D39" t="n">
-        <v>-11</v>
+        <v>12.4</v>
       </c>
       <c r="E39" t="n">
-        <v>8873.9</v>
+        <v>13482.1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4608.200000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1165,11 +1403,17 @@
       <c r="E40" t="n">
         <v>17901.9</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4419.800000000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1184,49 +1428,67 @@
       <c r="E41" t="n">
         <v>2831.5</v>
       </c>
+      <c r="F41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2831.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>97.7</v>
+        <v>99.3</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="D42" t="n">
-        <v>70.2</v>
+        <v>13.5</v>
       </c>
       <c r="E42" t="n">
-        <v>13897</v>
+        <v>8563.4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5731.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.3</v>
+        <v>97.7</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.2</v>
+        <v>-1.3</v>
       </c>
       <c r="D43" t="n">
-        <v>13.5</v>
+        <v>70.2</v>
       </c>
       <c r="E43" t="n">
-        <v>8563.4</v>
+        <v>13897</v>
+      </c>
+      <c r="F43" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5333.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1241,11 +1503,17 @@
       <c r="E44" t="n">
         <v>19343.4</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5446.400000000001</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1260,49 +1528,67 @@
       <c r="E45" t="n">
         <v>3912.3</v>
       </c>
+      <c r="F45" t="n">
+        <v>10</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3912.3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.9</v>
+        <v>107.6</v>
       </c>
       <c r="C46" t="n">
-        <v>3.2</v>
+        <v>8.6</v>
       </c>
       <c r="D46" t="n">
-        <v>-21.6</v>
+        <v>-55.8</v>
       </c>
       <c r="E46" t="n">
-        <v>12777.7</v>
+        <v>8651.5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>107.6</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4739.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>107.6</v>
+        <v>100.9</v>
       </c>
       <c r="C47" t="n">
-        <v>8.6</v>
+        <v>3.2</v>
       </c>
       <c r="D47" t="n">
-        <v>-55.8</v>
+        <v>-21.6</v>
       </c>
       <c r="E47" t="n">
-        <v>8651.5</v>
+        <v>12777.7</v>
+      </c>
+      <c r="F47" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4126.200000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1316,6 +1602,12 @@
       </c>
       <c r="E48" t="n">
         <v>16862.4</v>
+      </c>
+      <c r="F48" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4084.700000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/工业/主要工业产品的销售与库存/数字激光音视盘机.xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/数字激光音视盘机.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,61 +454,39 @@
           <t>数字激光音视盘机销售量_累计值</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>数字激光音视盘机产销率</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>数字激光音视盘机销售量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97</v>
+        <v>96.2</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>67.09999999999999</v>
+        <v>133.3</v>
       </c>
       <c r="E2" t="n">
-        <v>3668</v>
-      </c>
-      <c r="F2" t="n">
-        <v>97</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3668</v>
+        <v>5796.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.2</v>
+        <v>97</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>133.3</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>5796.9</v>
-      </c>
-      <c r="F3" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2128.9</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="4">
@@ -527,12 +505,6 @@
       <c r="E4" t="n">
         <v>8278.299999999999</v>
       </c>
-      <c r="F4" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2481.4</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -550,57 +522,39 @@
       <c r="E5" t="n">
         <v>2023.4</v>
       </c>
-      <c r="F5" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2023.4</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96.7</v>
+        <v>100.5</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>36.4</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>4156</v>
-      </c>
-      <c r="F6" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2132.6</v>
+        <v>7238.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.5</v>
+        <v>96.7</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>-9.699999999999999</v>
+        <v>36.4</v>
       </c>
       <c r="E7" t="n">
-        <v>7238.9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.799999999999997</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3082.9</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="8">
@@ -619,12 +573,6 @@
       <c r="E8" t="n">
         <v>10406.3</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3167.4</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -642,57 +590,39 @@
       <c r="E9" t="n">
         <v>2189</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2189</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>39.9</v>
+        <v>83.3</v>
       </c>
       <c r="E10" t="n">
-        <v>5263.7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3074.7</v>
+        <v>7588.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>97.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>83.3</v>
+        <v>39.9</v>
       </c>
       <c r="E11" t="n">
-        <v>7588.8</v>
-      </c>
-      <c r="F11" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2325.1</v>
+        <v>5263.7</v>
       </c>
     </row>
     <row r="12">
@@ -711,12 +641,6 @@
       <c r="E12" t="n">
         <v>10673.7</v>
       </c>
-      <c r="F12" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3084.900000000001</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -734,57 +658,39 @@
       <c r="E13" t="n">
         <v>2026</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2026</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98.59999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>34.4</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>4641.6</v>
-      </c>
-      <c r="F14" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2615.6</v>
+        <v>7560.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>34.4</v>
       </c>
       <c r="E15" t="n">
-        <v>7560.9</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2919.299999999999</v>
+        <v>4641.6</v>
       </c>
     </row>
     <row r="16">
@@ -803,12 +709,6 @@
       <c r="E16" t="n">
         <v>10637.1</v>
       </c>
-      <c r="F16" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3076.200000000001</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -828,61 +728,43 @@
       <c r="E17" t="n">
         <v>2368</v>
       </c>
-      <c r="F17" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2368</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D18" t="n">
-        <v>38.6</v>
+        <v>36.2</v>
       </c>
       <c r="E18" t="n">
-        <v>5186.3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.900000000000006</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2818.3</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D19" t="n">
-        <v>36.2</v>
+        <v>38.6</v>
       </c>
       <c r="E19" t="n">
-        <v>8115</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2928.7</v>
+        <v>5186.3</v>
       </c>
     </row>
     <row r="20">
@@ -903,12 +785,6 @@
       <c r="E20" t="n">
         <v>10646</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.5999999999999943</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2531</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -928,61 +804,43 @@
       <c r="E21" t="n">
         <v>1646.8</v>
       </c>
-      <c r="F21" t="n">
-        <v>4.299999999999997</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1646.8</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.5</v>
+        <v>101</v>
       </c>
       <c r="C22" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="D22" t="n">
-        <v>-6.4</v>
+        <v>-20.6</v>
       </c>
       <c r="E22" t="n">
-        <v>4072.2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2425.4</v>
+        <v>7117.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>101</v>
+        <v>100.5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="D23" t="n">
-        <v>-20.6</v>
+        <v>-6.4</v>
       </c>
       <c r="E23" t="n">
-        <v>7117.5</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3045.3</v>
+        <v>4072.2</v>
       </c>
     </row>
     <row r="24">
@@ -1003,12 +861,6 @@
       <c r="E24" t="n">
         <v>9813.299999999999</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2695.799999999999</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1028,61 +880,43 @@
       <c r="E25" t="n">
         <v>1472.7</v>
       </c>
-      <c r="F25" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1472.7</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>99.8</v>
+        <v>97.7</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.2</v>
+        <v>-0.1</v>
       </c>
       <c r="D26" t="n">
-        <v>3.5</v>
+        <v>67</v>
       </c>
       <c r="E26" t="n">
-        <v>3578</v>
-      </c>
-      <c r="F26" t="n">
-        <v>8.700000000000003</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2105.3</v>
+        <v>5708.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>97.7</v>
+        <v>99.8</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1</v>
+        <v>-3.2</v>
       </c>
       <c r="D27" t="n">
-        <v>67</v>
+        <v>3.5</v>
       </c>
       <c r="E27" t="n">
-        <v>5708.1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2130.1</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="28">
@@ -1103,12 +937,6 @@
       <c r="E28" t="n">
         <v>8134.3</v>
       </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2426.2</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1128,61 +956,43 @@
       <c r="E29" t="n">
         <v>1556.5</v>
       </c>
-      <c r="F29" t="n">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1556.5</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.3</v>
+        <v>98.5</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D30" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E30" t="n">
-        <v>3629.2</v>
-      </c>
-      <c r="F30" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2072.7</v>
+        <v>5714.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.5</v>
+        <v>97.3</v>
       </c>
       <c r="C31" t="n">
-        <v>1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="D31" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E31" t="n">
-        <v>5714.7</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2085.5</v>
+        <v>3629.2</v>
       </c>
     </row>
     <row r="32">
@@ -1203,12 +1013,6 @@
       <c r="E32" t="n">
         <v>7712.8</v>
       </c>
-      <c r="F32" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1998.1</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1228,61 +1032,43 @@
       <c r="E33" t="n">
         <v>4425.4</v>
       </c>
-      <c r="F33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G33" t="n">
-        <v>4425.4</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>8.300000000000001</v>
+        <v>35.1</v>
       </c>
       <c r="E34" t="n">
-        <v>9716.799999999999</v>
-      </c>
-      <c r="F34" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="G34" t="n">
-        <v>5291.4</v>
+        <v>15559</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D35" t="n">
-        <v>35.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>15559</v>
-      </c>
-      <c r="F35" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="G35" t="n">
-        <v>5842.200000000001</v>
+        <v>9716.799999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1303,12 +1089,6 @@
       <c r="E36" t="n">
         <v>20359.4</v>
       </c>
-      <c r="F36" t="n">
-        <v>0.8999999999999915</v>
-      </c>
-      <c r="G36" t="n">
-        <v>4800.400000000001</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1328,61 +1108,43 @@
       <c r="E37" t="n">
         <v>4169.7</v>
       </c>
-      <c r="F37" t="n">
-        <v>3.900000000000006</v>
-      </c>
-      <c r="G37" t="n">
-        <v>4169.7</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D38" t="n">
-        <v>-11</v>
+        <v>12.4</v>
       </c>
       <c r="E38" t="n">
-        <v>8873.9</v>
-      </c>
-      <c r="F38" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="G38" t="n">
-        <v>4704.2</v>
+        <v>13482.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.59999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D39" t="n">
-        <v>12.4</v>
+        <v>-11</v>
       </c>
       <c r="E39" t="n">
-        <v>13482.1</v>
-      </c>
-      <c r="F39" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="G39" t="n">
-        <v>4608.200000000001</v>
+        <v>8873.9</v>
       </c>
     </row>
     <row r="40">
@@ -1403,12 +1165,6 @@
       <c r="E40" t="n">
         <v>17901.9</v>
       </c>
-      <c r="F40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G40" t="n">
-        <v>4419.800000000001</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1428,61 +1184,43 @@
       <c r="E41" t="n">
         <v>2831.5</v>
       </c>
-      <c r="F41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2831.5</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.3</v>
+        <v>97.7</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.2</v>
+        <v>-1.3</v>
       </c>
       <c r="D42" t="n">
-        <v>13.5</v>
+        <v>70.2</v>
       </c>
       <c r="E42" t="n">
-        <v>8563.4</v>
-      </c>
-      <c r="F42" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="G42" t="n">
-        <v>5731.9</v>
+        <v>13897</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.7</v>
+        <v>99.3</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="D43" t="n">
-        <v>70.2</v>
+        <v>13.5</v>
       </c>
       <c r="E43" t="n">
-        <v>13897</v>
-      </c>
-      <c r="F43" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="G43" t="n">
-        <v>5333.6</v>
+        <v>8563.4</v>
       </c>
     </row>
     <row r="44">
@@ -1503,12 +1241,6 @@
       <c r="E44" t="n">
         <v>19343.4</v>
       </c>
-      <c r="F44" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G44" t="n">
-        <v>5446.400000000001</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1528,61 +1260,43 @@
       <c r="E45" t="n">
         <v>3912.3</v>
       </c>
-      <c r="F45" t="n">
-        <v>10</v>
-      </c>
-      <c r="G45" t="n">
-        <v>3912.3</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.6</v>
+        <v>100.9</v>
       </c>
       <c r="C46" t="n">
-        <v>8.6</v>
+        <v>3.2</v>
       </c>
       <c r="D46" t="n">
-        <v>-55.8</v>
+        <v>-21.6</v>
       </c>
       <c r="E46" t="n">
-        <v>8651.5</v>
-      </c>
-      <c r="F46" t="n">
-        <v>107.6</v>
-      </c>
-      <c r="G46" t="n">
-        <v>4739.2</v>
+        <v>12777.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100.9</v>
+        <v>107.6</v>
       </c>
       <c r="C47" t="n">
-        <v>3.2</v>
+        <v>8.6</v>
       </c>
       <c r="D47" t="n">
-        <v>-21.6</v>
+        <v>-55.8</v>
       </c>
       <c r="E47" t="n">
-        <v>12777.7</v>
-      </c>
-      <c r="F47" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="G47" t="n">
-        <v>4126.200000000001</v>
+        <v>8651.5</v>
       </c>
     </row>
     <row r="48">
@@ -1602,12 +1316,6 @@
       </c>
       <c r="E48" t="n">
         <v>16862.4</v>
-      </c>
-      <c r="F48" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="G48" t="n">
-        <v>4084.700000000001</v>
       </c>
     </row>
   </sheetData>
